--- a/STAT/finalStat/test_logistic.xlsx
+++ b/STAT/finalStat/test_logistic.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951EE297-5D93-4089-9522-D9BB95ECE044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3715F642-5277-4DF3-B581-F86C83FD06DB}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_logistic" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -77,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -955,11 +954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94777723-780B-4372-B870-A0FB6B6C784F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1195,7 @@
       <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f>(K3+L4)/SUM(K3:L4)</f>
         <v>0.6</v>
       </c>
@@ -1266,7 +1265,7 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f>K3/(K3+L3)</f>
         <v>0.75</v>
       </c>
@@ -1301,7 +1300,7 @@
       <c r="I9" t="s">
         <v>11</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <f>2*((J7*J8)/(J7+J8))</f>
         <v>0.6</v>
       </c>
@@ -1368,523 +1367,396 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8DE4C5-2946-4913-9B33-41042D85E48E}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>132</v>
-      </c>
-      <c r="B1">
-        <v>31</v>
-      </c>
-      <c r="C1">
-        <v>78</v>
-      </c>
-      <c r="D1">
-        <v>63</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>125</v>
-      </c>
-      <c r="B2">
-        <v>61</v>
-      </c>
-      <c r="C2">
-        <v>68</v>
-      </c>
-      <c r="D2">
-        <v>33</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>162</v>
+      </c>
+      <c r="B2" s="4">
+        <v>134</v>
+      </c>
+      <c r="C2" s="4">
+        <v>151</v>
+      </c>
+      <c r="D2" s="4">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <f>1/(1+2.718^-(0.0275-0.00395*(A2)-0.0207*(B2)+0.0332*(C2)-0.02475*(D2)))</f>
+        <v>0.65963798750115055</v>
+      </c>
+      <c r="G2" s="5">
+        <f>IF(F2&gt;=0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>127</v>
+      </c>
+      <c r="B3" s="4">
+        <v>75</v>
+      </c>
+      <c r="C3" s="4">
+        <v>133</v>
+      </c>
+      <c r="D3" s="4">
+        <v>81</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F11" si="0">1/(1+2.718^-(0.0275-0.00395*(A3)-0.0207*(B3)+0.0332*(C3)-0.02475*(D3)))</f>
+        <v>0.59487609088596627</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G11" si="1">IF(F3&gt;=0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <f>COUNTIF($H$2:$H$11,"TP")</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <f>COUNTIF($H$2:$H$11,"FN")</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>189</v>
+      </c>
+      <c r="B4" s="4">
+        <v>119</v>
+      </c>
+      <c r="C4" s="4">
+        <v>106</v>
+      </c>
+      <c r="D4" s="4">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17239646986856741</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f>COUNTIF($H$2:$H$11,"FP")</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <f>COUNTIF($H$2:$H$11,"TN")</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4">
+        <v>163</v>
+      </c>
+      <c r="D5" s="4">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91589628491660624</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>57</v>
+      </c>
+      <c r="B6" s="4">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4">
+        <v>152</v>
+      </c>
+      <c r="D6" s="4">
+        <v>90</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75597409990953379</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2">
+        <f>(K3+L4)/SUM(K3:L4)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4">
+        <v>146</v>
+      </c>
+      <c r="C7" s="4">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10074962511563088</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <f>K3/(K3+K4)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>184</v>
       </c>
-      <c r="B3">
-        <v>102</v>
-      </c>
-      <c r="C3">
-        <v>112</v>
-      </c>
-      <c r="D3">
-        <v>39</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>130</v>
-      </c>
-      <c r="B4">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>174</v>
-      </c>
-      <c r="D4">
-        <v>41</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>86</v>
-      </c>
-      <c r="B5">
-        <v>73</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>85</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>147</v>
-      </c>
-      <c r="B6">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <v>90</v>
-      </c>
-      <c r="D6">
-        <v>52</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>212</v>
-      </c>
-      <c r="B7">
-        <v>118</v>
-      </c>
-      <c r="C7">
-        <v>125</v>
-      </c>
-      <c r="D7">
-        <v>42</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>210</v>
-      </c>
-      <c r="B8">
-        <v>39</v>
-      </c>
-      <c r="C8">
-        <v>72</v>
-      </c>
-      <c r="D8">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>234</v>
-      </c>
-      <c r="B9">
-        <v>117</v>
-      </c>
-      <c r="C9">
-        <v>147</v>
-      </c>
-      <c r="D9">
-        <v>85</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>147</v>
-      </c>
-      <c r="B10">
-        <v>72</v>
-      </c>
-      <c r="C10">
-        <v>76</v>
-      </c>
-      <c r="D10">
-        <v>63</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>150</v>
-      </c>
-      <c r="C11">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>79</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>192</v>
-      </c>
-      <c r="B12">
-        <v>111</v>
-      </c>
-      <c r="C12">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>224</v>
-      </c>
-      <c r="B13">
-        <v>74</v>
-      </c>
-      <c r="C13">
-        <v>90</v>
-      </c>
-      <c r="D13">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B8" s="4">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4">
+        <v>148</v>
+      </c>
+      <c r="D8" s="4">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83240709995029127</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <f>K3/(K3+L3)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>158</v>
+      </c>
+      <c r="B9" s="4">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4">
+        <v>83</v>
+      </c>
+      <c r="D9" s="4">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.53937669803926147</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
-        <v>53</v>
-      </c>
-      <c r="C14">
-        <v>169</v>
-      </c>
-      <c r="D14">
-        <v>59</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>116</v>
-      </c>
-      <c r="C15">
-        <v>123</v>
-      </c>
-      <c r="D15">
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2">
+        <f>2*((J7*J8)/(J7+J8))</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>62</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>128</v>
-      </c>
-      <c r="B16">
-        <v>115</v>
-      </c>
-      <c r="C16">
-        <v>99</v>
-      </c>
-      <c r="D16">
-        <v>65</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>228</v>
-      </c>
-      <c r="B17">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>39</v>
-      </c>
-      <c r="D17">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>211</v>
-      </c>
-      <c r="B18">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>66</v>
-      </c>
-      <c r="D18">
-        <v>71</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>236</v>
-      </c>
-      <c r="B19">
-        <v>142</v>
-      </c>
-      <c r="C19">
-        <v>67</v>
-      </c>
-      <c r="D19">
-        <v>67</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>137</v>
-      </c>
-      <c r="B20">
-        <v>57</v>
-      </c>
-      <c r="C20">
-        <v>76</v>
-      </c>
-      <c r="D20">
-        <v>31</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>124</v>
-      </c>
-      <c r="C21">
-        <v>138</v>
-      </c>
-      <c r="D21">
-        <v>51</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>174</v>
-      </c>
-      <c r="B22">
-        <v>79</v>
-      </c>
-      <c r="C22">
+      <c r="B10" s="4">
+        <v>148</v>
+      </c>
+      <c r="C10" s="4">
+        <v>165</v>
+      </c>
+      <c r="D10" s="4">
+        <v>94</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.46767351173443361</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>160</v>
+      </c>
+      <c r="B11" s="4">
         <v>127</v>
       </c>
-      <c r="D22">
-        <v>31</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>82</v>
-      </c>
-      <c r="B23">
-        <v>36</v>
-      </c>
-      <c r="C23">
-        <v>107</v>
-      </c>
-      <c r="D23">
-        <v>35</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>48</v>
-      </c>
-      <c r="B24">
-        <v>69</v>
-      </c>
-      <c r="C24">
-        <v>109</v>
-      </c>
-      <c r="D24">
-        <v>99</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>116</v>
-      </c>
-      <c r="D25">
-        <v>71</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>38</v>
-      </c>
-      <c r="B26">
-        <v>65</v>
-      </c>
-      <c r="C26">
-        <v>172</v>
-      </c>
-      <c r="D26">
-        <v>51</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>120</v>
-      </c>
-      <c r="C27">
-        <v>57</v>
-      </c>
-      <c r="D27">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>136</v>
-      </c>
-      <c r="B28">
-        <v>45</v>
-      </c>
-      <c r="C28">
-        <v>45</v>
-      </c>
-      <c r="D28">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>193</v>
-      </c>
-      <c r="B29">
-        <v>122</v>
-      </c>
-      <c r="C29">
-        <v>101</v>
-      </c>
-      <c r="D29">
-        <v>24</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>123</v>
-      </c>
-      <c r="B30">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>173</v>
-      </c>
-      <c r="D30">
-        <v>50</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+      <c r="C11" s="4">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4">
+        <v>95</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7570059441347638E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/STAT/finalStat/test_logistic.xlsx
+++ b/STAT/finalStat/test_logistic.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD6E0F0-9218-4260-9EA8-72D69995F28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_logistic" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_Final" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -72,11 +74,14 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,7 +592,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -600,6 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -954,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -1367,11 +1373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,4 +1768,435 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9660F6F7-2827-4859-ADFE-70239BA59B3E}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6">
+        <v>134</v>
+      </c>
+      <c r="D2" s="6">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <f>1/(1+2.718^-(1.47716-0.00535*(A2)-0.01705*(B2)+0.00402*(C2)-0.0828*(D2)+0.00367*(E2)))</f>
+        <v>0.12665434006074586</v>
+      </c>
+      <c r="H2" s="5">
+        <f>IF(G2&gt;=0.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6">
+        <v>111</v>
+      </c>
+      <c r="D3" s="6">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G11" si="0">1/(1+2.718^-(1.47716-0.00535*(A3)-0.01705*(B3)+0.00402*(C3)-0.0828*(D3)+0.00367*(E3)))</f>
+        <v>0.24957956885552696</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H11" si="1">IF(G3&gt;=0.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <f>COUNTIF($I$2:$I$11,"TP")</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f>COUNTIF($I$2:$I$11,"FN")</f>
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>46</v>
+      </c>
+      <c r="B4" s="6">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6">
+        <v>139</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
+        <v>49</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.41308088922683878</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>COUNTIF($I$2:$I$11,"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <f>COUNTIF($I$2:$I$11,"TN")</f>
+        <v>6</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6">
+        <v>118</v>
+      </c>
+      <c r="D5" s="6">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6">
+        <v>68</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10237178201212395</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>75</v>
+      </c>
+      <c r="C6" s="6">
+        <v>99</v>
+      </c>
+      <c r="D6" s="6">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.2556375914283698E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <f>(L3+M4)/SUM(L3:M4)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>143</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43</v>
+      </c>
+      <c r="E7" s="6">
+        <v>56</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16930722344982344</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="e">
+        <f>L3/(L3+L4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6">
+        <v>86</v>
+      </c>
+      <c r="D8" s="6">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1307409204417187</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <f>L3/(L3+M3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6">
+        <v>114</v>
+      </c>
+      <c r="D9" s="6">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16774360447209566</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2" t="e">
+        <f>2*((K7*K8)/(K7+K8))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6">
+        <v>90</v>
+      </c>
+      <c r="D10" s="6">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6">
+        <v>37</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25878543117299574</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6">
+        <v>62</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13146876890574732</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/STAT/finalStat/test_logistic.xlsx
+++ b/STAT/finalStat/test_logistic.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD6E0F0-9218-4260-9EA8-72D69995F28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_logistic" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Test_Final" sheetId="3" r:id="rId3"/>
+    <sheet name="train3" sheetId="4" r:id="rId3"/>
+    <sheet name="Test_Final" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +598,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -606,6 +612,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -960,11 +970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:N11"/>
+    <sheetView zoomScale="209" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +1006,7 @@
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1"/>
@@ -1033,10 +1043,10 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
         <v>0</v>
       </c>
       <c r="AE2" t="s">
@@ -1070,17 +1080,17 @@
       <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="I3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
         <f>COUNTIF($H$2:$H$11,"TP")</f>
         <v>3</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="9">
         <f>COUNTIF($H$2:$H$11,"FN")</f>
         <v>1</v>
       </c>
@@ -1122,14 +1132,14 @@
         <v>4</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
         <f>COUNTIF($H$2:$H$11,"FP")</f>
         <v>3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="9">
         <f>COUNTIF($H$2:$H$11,"TN")</f>
         <v>3</v>
       </c>
@@ -1373,11 +1383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,10 +1781,409 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9660F6F7-2827-4859-ADFE-70239BA59B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>173</v>
+      </c>
+      <c r="B2" s="10">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10">
+        <v>154</v>
+      </c>
+      <c r="D2" s="10">
+        <v>61</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <f>1/(1+2.718^-(-1.21659+0.001*(A2)-0.01234*(B2)+0.01043*(C2)+0.02216*(D2)))</f>
+        <v>0.80543914959294394</v>
+      </c>
+      <c r="G2" s="5">
+        <f>IF(F2&gt;=0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>162</v>
+      </c>
+      <c r="B3" s="10">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F11" si="0">1/(1+2.718^-(-1.21659+0.001*(A3)-0.01234*(B3)+0.01043*(C3)+0.02216*(D3)))</f>
+        <v>0.55875862357579342</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G11" si="1">IF(F3&gt;=0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <f>COUNTIF($H$2:$H$11,"TP")</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <f>COUNTIF($H$2:$H$11,"FN")</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>200</v>
+      </c>
+      <c r="B4" s="10">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10">
+        <v>134</v>
+      </c>
+      <c r="D4" s="10">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.72046147517475023</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f>COUNTIF($H$2:$H$11,"FP")</f>
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <f>COUNTIF($H$2:$H$11,"TN")</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>225</v>
+      </c>
+      <c r="B5" s="10">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10">
+        <v>165</v>
+      </c>
+      <c r="D5" s="10">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76733007948377219</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>223</v>
+      </c>
+      <c r="B6" s="10">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10">
+        <v>117</v>
+      </c>
+      <c r="D6" s="10">
+        <v>99</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.87694106108216341</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2">
+        <f>(K3+L4)/SUM(K3:L4)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>175</v>
+      </c>
+      <c r="B7" s="10">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10">
+        <v>62</v>
+      </c>
+      <c r="D7" s="10">
+        <v>93</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7973232725706545</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <f>K3/(K3+K4)</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>81</v>
+      </c>
+      <c r="B8" s="10">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10">
+        <v>167</v>
+      </c>
+      <c r="D8" s="10">
+        <v>53</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8225530019298779</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <f>K3/(K3+L3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>205</v>
+      </c>
+      <c r="B9" s="10">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10">
+        <v>157</v>
+      </c>
+      <c r="D9" s="10">
+        <v>71</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.87022195745236752</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2">
+        <f>2*((J7*J8)/(J7+J8))</f>
+        <v>0.61538461538461531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>56</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44</v>
+      </c>
+      <c r="C10" s="10">
+        <v>91</v>
+      </c>
+      <c r="D10" s="10">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.46105807330831333</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>176</v>
+      </c>
+      <c r="B11" s="10">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10">
+        <v>173</v>
+      </c>
+      <c r="D11" s="10">
+        <v>95</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.91491292153370996</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>

--- a/STAT/finalStat/test_logistic.xlsx
+++ b/STAT/finalStat/test_logistic.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F583E12F-B29A-4D65-9F83-6A031624674F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_logistic" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="train3" sheetId="4" r:id="rId3"/>
     <sheet name="Test_Final" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -970,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView zoomScale="209" zoomScaleNormal="120" workbookViewId="0">
@@ -1383,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1781,10 +1782,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -2180,10 +2181,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>

--- a/STAT/finalStat/test_logistic.xlsx
+++ b/STAT/finalStat/test_logistic.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Problem-solving\STAT\finalStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farm_Watcharakorn\Desktop\HomeWork\1-2\Problem Solving\Waranon\Problem-solving\STAT\finalStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F583E12F-B29A-4D65-9F83-6A031624674F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3270" windowWidth="15600" windowHeight="18840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test_logistic" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="train3" sheetId="4" r:id="rId3"/>
     <sheet name="Test_Final" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -82,7 +81,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,7 +601,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -617,6 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -971,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView zoomScale="209" zoomScaleNormal="120" workbookViewId="0">
@@ -1384,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1782,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2181,14 +2184,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,15 +2248,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <f>1/(1+2.718^-(1.47716-0.00535*(A2)-0.01705*(B2)+0.00402*(C2)-0.0828*(D2)+0.00367*(E2)))</f>
-        <v>0.12665434006074586</v>
+        <f>1/(1+2.718^-(1.47716+0.00535*(A2)-0.01705*(B2)+0.00402*(C2)-0.03828*(D2)+0.00367*(E2)))</f>
+        <v>0.51067477060366717</v>
       </c>
       <c r="H2" s="5">
         <f>IF(G2&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2284,15 +2287,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G11" si="0">1/(1+2.718^-(1.47716-0.00535*(A3)-0.01705*(B3)+0.00402*(C3)-0.0828*(D3)+0.00367*(E3)))</f>
-        <v>0.24957956885552696</v>
+        <f t="shared" ref="G3:G11" si="0">1/(1+2.718^-(1.47716+0.00535*(A3)-0.01705*(B3)+0.00402*(C3)-0.03828*(D3)+0.00367*(E3)))</f>
+        <v>0.61497218095315609</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H11" si="1">IF(G3&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>1</v>
@@ -2302,11 +2305,11 @@
       </c>
       <c r="L3" s="1">
         <f>COUNTIF($I$2:$I$11,"TP")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1">
         <f>COUNTIF($I$2:$I$11,"FN")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>5</v>
@@ -2336,14 +2339,14 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>0.41308088922683878</v>
+        <v>0.73715100683460788</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
@@ -2351,11 +2354,11 @@
       </c>
       <c r="L4" s="1">
         <f>COUNTIF($I$2:$I$11,"FP")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1">
         <f>COUNTIF($I$2:$I$11,"TN")</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>4</v>
@@ -2385,7 +2388,7 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>0.10237178201212395</v>
+        <v>0.42173934497969862</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="1"/>
@@ -2416,7 +2419,7 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>4.2556375914283698E-2</v>
+        <v>0.27499224103816899</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
@@ -2428,9 +2431,9 @@
       <c r="J6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="11">
         <f>(L3+M4)/SUM(L3:M4)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2454,21 +2457,21 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0.16930722344982344</v>
+        <v>0.59575533887962318</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="2" t="e">
+      <c r="K7" s="11">
         <f>L3/(L3+L4)</f>
-        <v>#DIV/0!</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2492,21 +2495,21 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0.1307409204417187</v>
+        <v>0.50899309740643051</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="11">
         <f>L3/(L3+M3)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2530,21 +2533,21 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0.16774360447209566</v>
+        <v>0.54375573746305417</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="2" t="e">
+      <c r="K9" s="11">
         <f>2*((K7*K8)/(K7+K8))</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2568,14 +2571,14 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0.25878543117299574</v>
+        <v>0.54179788063677647</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2599,14 +2602,14 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0.13146876890574732</v>
+        <v>0.54789026038359401</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
